--- a/BD Excel/a22126.xlsx
+++ b/BD Excel/a22126.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1769084958" val="1230" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1769084958" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1769084958" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1769084958"/>
+      <pm:revision xmlns:pm="smNativeData" day="1769101753" val="1230" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1769101753" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1769101753" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1769101753"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="97">
   <si>
     <t>Ticket</t>
   </si>
@@ -55,51 +55,246 @@
     <t>Usuario</t>
   </si>
   <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t>ZTech, Soporte Técnico</t>
+  </si>
+  <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
+    <t>Sin colaboradores</t>
+  </si>
+  <si>
+    <t>Correcto</t>
+  </si>
+  <si>
+    <t>Sin cierre</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>Solucionado</t>
+  </si>
+  <si>
+    <t>Excedido</t>
+  </si>
+  <si>
+    <t>Esperando aprobación</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>Machado, Gabriel</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>12/08/2025</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>11/08/2025</t>
+  </si>
+  <si>
+    <t>10/08/2025</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>15/08/2025</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>16/08/2025</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>| SommierCenter, Juan Billiot</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>15/11/2025</t>
+  </si>
+  <si>
+    <t>24/08/2025</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>30/08/2025</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>06/09/2025</t>
+  </si>
+  <si>
+    <t>En espera</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>Pausado</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t>21/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>27/09/2025</t>
+  </si>
+  <si>
+    <t>| SommierCenter, Guillermo Rodriguez, Machado, Gabriel</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>| SommierCenter, Guillermo Rodriguez</t>
+  </si>
+  <si>
+    <t>Karpilovsky, Ivan</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>04/10/2025</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
     <t>18/10/2025</t>
   </si>
   <si>
-    <t>ZTech, Soporte Técnico</t>
-  </si>
-  <si>
-    <t>Abierto</t>
-  </si>
-  <si>
-    <t>Sin colaboradores</t>
-  </si>
-  <si>
-    <t>Correcto</t>
-  </si>
-  <si>
-    <t>Excedido</t>
-  </si>
-  <si>
-    <t>Sin cierre</t>
-  </si>
-  <si>
     <t>19/10/2025</t>
   </si>
   <si>
-    <t>Solucionado</t>
-  </si>
-  <si>
-    <t>Esperando aprobación</t>
-  </si>
-  <si>
     <t>25/10/2025</t>
   </si>
   <si>
-    <t>Cerrado</t>
-  </si>
-  <si>
     <t>26/10/2025</t>
   </si>
   <si>
     <t>01/11/2025</t>
   </si>
   <si>
-    <t>Machado, Gabriel</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
@@ -113,9 +308,6 @@
   </si>
   <si>
     <t>08/12/2025</t>
-  </si>
-  <si>
-    <t>En espera</t>
   </si>
   <si>
     <t>03/01/2026</t>
@@ -145,7 +337,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1769084958" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1769101753" ulstyle="none" kern="1">
             <pm:latin face="Liberation Serif" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -160,7 +352,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1769084958" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1769101753" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -175,7 +367,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1769084958" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1769101753" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -191,7 +383,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1769084958" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1769101753" ulstyle="none" kern="1">
             <pm:latin face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -227,7 +419,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1769084958"/>
+          <pm:border xmlns:pm="smNativeData" id="1769101753"/>
         </ext>
       </extLst>
     </border>
@@ -246,7 +438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1769084958">
+          <pm:border xmlns:pm="smNativeData" id="1769101753">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -276,7 +468,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1769084958" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1769101753" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -540,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -552,7 +744,7 @@
     <col min="2" max="2" width="23.252252" customWidth="1" style="1"/>
     <col min="3" max="3" width="26.864865" customWidth="1" style="1"/>
     <col min="4" max="4" width="13.828829" customWidth="1" style="1"/>
-    <col min="5" max="5" width="21.054054" customWidth="1" style="1"/>
+    <col min="5" max="5" width="64.729730" customWidth="1" style="1"/>
     <col min="6" max="6" width="42.099099" customWidth="1" style="1"/>
     <col min="7" max="7" width="33.774775" customWidth="1" style="1"/>
     <col min="8" max="8" width="20.738739" customWidth="1" style="1"/>
@@ -592,7 +784,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="n">
-        <v>30888</v>
+        <v>30253</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -610,50 +802,50 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="n">
-        <v>30891</v>
+        <v>30261</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>30892</v>
+        <v>30269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -662,15 +854,15 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
-        <v>30940</v>
+        <v>30285</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -679,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -691,15 +883,15 @@
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
-        <v>30946</v>
+        <v>30299</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -708,21 +900,21 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="n">
-        <v>31008</v>
+        <v>30300</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -734,24 +926,24 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="n">
-        <v>31112</v>
+        <v>30304</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>11</v>
@@ -763,27 +955,27 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="n">
-        <v>31194</v>
+        <v>30306</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -792,18 +984,18 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="n">
-        <v>31236</v>
+        <v>30315</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -821,15 +1013,15 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="n">
-        <v>31237</v>
+        <v>30320</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -844,18 +1036,18 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="n">
-        <v>31238</v>
+        <v>30326</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
@@ -867,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>29</v>
@@ -878,68 +1070,68 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="n">
-        <v>31239</v>
+        <v>30329</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="n">
-        <v>31240</v>
+        <v>30330</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="n">
-        <v>31402</v>
+        <v>30347</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
@@ -948,18 +1140,18 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="n">
-        <v>31477</v>
+        <v>30353</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -971,21 +1163,21 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="n">
-        <v>31478</v>
+        <v>30361</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>11</v>
@@ -997,20 +1189,2880 @@
         <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="n">
+        <v>30367</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="n">
+        <v>30374</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="n">
+        <v>30388</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="n">
+        <v>30392</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="n">
+        <v>30397</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="n">
+        <v>30399</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="n">
+        <v>30401</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="n">
+        <v>30402</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="n">
+        <v>30414</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="n">
+        <v>30418</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="n">
+        <v>30442</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="n">
+        <v>30443</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="n">
+        <v>30449</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="n">
+        <v>30453</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="n">
+        <v>30474</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="n">
+        <v>30481</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="n">
+        <v>30485</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="n">
+        <v>30489</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="n">
+        <v>30502</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="n">
+        <v>30509</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="n">
+        <v>30521</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="n">
+        <v>30526</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="n">
+        <v>30527</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="n">
+        <v>30528</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="n">
+        <v>30529</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="n">
+        <v>30530</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="n">
+        <v>30531</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="n">
+        <v>30539</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="n">
+        <v>30540</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="n">
+        <v>30541</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="n">
+        <v>30545</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="n">
+        <v>30550</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="n">
+        <v>30565</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="n">
+        <v>30574</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="n">
+        <v>30589</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="n">
+        <v>30591</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="n">
+        <v>30595</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="n">
+        <v>30609</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="n">
+        <v>30610</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="n">
+        <v>30614</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="n">
+        <v>30625</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="n">
+        <v>30626</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="n">
+        <v>30627</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="n">
+        <v>30629</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="n">
+        <v>30630</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="n">
+        <v>30631</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="n">
+        <v>30632</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="n">
+        <v>30634</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="n">
+        <v>30637</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="n">
+        <v>30638</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="n">
+        <v>30639</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="n">
+        <v>30641</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="n">
+        <v>30642</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="n">
+        <v>30647</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="n">
+        <v>30651</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="n">
+        <v>30660</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="n">
+        <v>30661</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="n">
+        <v>30664</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="n">
+        <v>30668</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="n">
+        <v>30672</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="n">
+        <v>30673</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="n">
+        <v>30682</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="n">
+        <v>30694</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="n">
+        <v>30695</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="n">
+        <v>30696</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="n">
+        <v>30697</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="n">
+        <v>30698</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="n">
+        <v>30699</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="n">
+        <v>30700</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="n">
+        <v>30701</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="n">
+        <v>30702</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="n">
+        <v>30704</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="n">
+        <v>30712</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="n">
+        <v>30720</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="n">
+        <v>30722</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="n">
+        <v>30726</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="n">
+        <v>30727</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="n">
+        <v>30732</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="n">
+        <v>30734</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="n">
+        <v>30736</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="n">
+        <v>30770</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="n">
+        <v>30771</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="n">
+        <v>30772</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="n">
+        <v>30775</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="n">
+        <v>30776</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="n">
+        <v>30778</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="n">
+        <v>30783</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="n">
+        <v>30784</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="n">
+        <v>30790</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="n">
+        <v>30792</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="n">
+        <v>30794</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="n">
+        <v>30798</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="n">
+        <v>30800</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="n">
+        <v>30827</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="n">
+        <v>30888</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="n">
+        <v>30891</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="n">
+        <v>30892</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="n">
+        <v>30940</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="n">
+        <v>30946</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="n">
+        <v>31008</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="n">
+        <v>31112</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="n">
+        <v>31194</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="n">
+        <v>31236</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="n">
+        <v>31237</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="n">
+        <v>31238</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="n">
+        <v>31239</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="n">
+        <v>31240</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="n">
+        <v>31402</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="n">
+        <v>31477</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="n">
+        <v>31478</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1769084958" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1769101753" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1019,16 +4071,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1769084958" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1769084958" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1769084958" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1769084958" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1769101753" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1769101753" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1769101753" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1769101753" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1769084958" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1769101753" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
